--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,33 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -97,37 +103,43 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
@@ -136,30 +148,24 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -169,7 +175,10 @@
     <t>care</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,16 +626,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,7 +676,7 @@
         <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -696,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -714,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -764,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.828125</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,37 +855,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6078431372549019</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>107</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>82</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5932203389830508</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5661375661375662</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5503875968992248</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C11">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D11">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5302013422818792</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C12">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7878787878787878</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,37 +1105,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.48</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>39</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K13">
-        <v>0.7735849056603774</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2619047619047619</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1528150134048257</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1264,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7535211267605634</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1296,37 +1305,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0119201030927835</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>313</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3067</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K17">
-        <v>0.7301587301587301</v>
+        <v>0.75625</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,21 +1347,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>274</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,21 +1397,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.01386649467913576</v>
+      </c>
+      <c r="C19">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>0.12</v>
+      </c>
+      <c r="F19">
+        <v>0.88</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3058</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6588235294117647</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.5851063829787234</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5796610169491525</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L25">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="M25">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,38 +1603,38 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5774058577405857</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L26">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
         <v>0.5692307692307692</v>
@@ -1603,7 +1660,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>0.5571428571428572</v>
@@ -1629,16 +1686,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5280898876404494</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1650,33 +1707,59 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.01004709576138148</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>3153</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
